--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>245.663428745944</v>
+        <v>46.09750492921889</v>
       </c>
       <c r="R2">
-        <v>2210.970858713496</v>
+        <v>414.87754436297</v>
       </c>
       <c r="S2">
-        <v>0.0351295791722707</v>
+        <v>0.008035130527211564</v>
       </c>
       <c r="T2">
-        <v>0.03512957917227069</v>
+        <v>0.008035130527211564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>213.2051213984853</v>
+        <v>60.74218738435022</v>
       </c>
       <c r="R3">
-        <v>1918.846092586368</v>
+        <v>546.679686459152</v>
       </c>
       <c r="S3">
-        <v>0.03048807968827691</v>
+        <v>0.01058780523785429</v>
       </c>
       <c r="T3">
-        <v>0.0304880796882769</v>
+        <v>0.01058780523785429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>298.0983238102614</v>
+        <v>84.92827998254755</v>
       </c>
       <c r="R4">
-        <v>2682.884914292352</v>
+        <v>764.354519842928</v>
       </c>
       <c r="S4">
-        <v>0.04262770702530407</v>
+        <v>0.01480361716234219</v>
       </c>
       <c r="T4">
-        <v>0.04262770702530407</v>
+        <v>0.01480361716234219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>1858.099253027218</v>
+        <v>1223.807258111519</v>
       </c>
       <c r="R5">
-        <v>16722.89327724496</v>
+        <v>11014.26532300367</v>
       </c>
       <c r="S5">
-        <v>0.2657059911292734</v>
+        <v>0.2133185098450311</v>
       </c>
       <c r="T5">
-        <v>0.2657059911292733</v>
+        <v>0.2133185098450311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>1612.59768633203</v>
@@ -818,10 +818,10 @@
         <v>14513.37917698827</v>
       </c>
       <c r="S6">
-        <v>0.2305995580384364</v>
+        <v>0.2810875104293155</v>
       </c>
       <c r="T6">
-        <v>0.2305995580384363</v>
+        <v>0.2810875104293154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>2254.695685182068</v>
@@ -880,10 +880,10 @@
         <v>20292.26116663861</v>
       </c>
       <c r="S7">
-        <v>0.322418810916675</v>
+        <v>0.3930098637094632</v>
       </c>
       <c r="T7">
-        <v>0.3224188109166749</v>
+        <v>0.3930098637094632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>165.742592060032</v>
+        <v>109.1636987694934</v>
       </c>
       <c r="R8">
-        <v>1491.683328540288</v>
+        <v>982.4732889254401</v>
       </c>
       <c r="S8">
-        <v>0.02370099424123742</v>
+        <v>0.01902802700043979</v>
       </c>
       <c r="T8">
-        <v>0.02370099424123741</v>
+        <v>0.01902802700043979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>143.8438339863893</v>
+        <v>143.8438339863894</v>
       </c>
       <c r="R9">
         <v>1294.594505877504</v>
       </c>
       <c r="S9">
-        <v>0.02056949778916271</v>
+        <v>0.02507302691089</v>
       </c>
       <c r="T9">
-        <v>0.0205694977891627</v>
+        <v>0.02507302691088999</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
-        <v>201.1190234105173</v>
+        <v>201.1190234105174</v>
       </c>
       <c r="R10">
         <v>1810.071210694656</v>
       </c>
       <c r="S10">
-        <v>0.02875978199936356</v>
+        <v>0.03505650917745253</v>
       </c>
       <c r="T10">
-        <v>0.02875978199936355</v>
+        <v>0.03505650917745253</v>
       </c>
     </row>
   </sheetData>
